--- a/day07/data/수정_서울_구별인구.xlsx
+++ b/day07/data/수정_서울_구별인구.xlsx
@@ -1,162 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\소스\bigdata-analysis-2024\day07\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559BD0CA-80F1-4443-9438-454268535E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
-  <si>
-    <t>구</t>
-  </si>
-  <si>
-    <t>세대소계</t>
-  </si>
-  <si>
-    <t>성별소계</t>
-  </si>
-  <si>
-    <t>남자</t>
-  </si>
-  <si>
-    <t>여자</t>
-  </si>
-  <si>
-    <t>한국인소계</t>
-  </si>
-  <si>
-    <t>등록외국인소계</t>
-  </si>
-  <si>
-    <t>세대당인구</t>
-  </si>
-  <si>
-    <t>65세이상</t>
-  </si>
-  <si>
-    <t>소계</t>
-  </si>
-  <si>
-    <t>종로구</t>
-  </si>
-  <si>
-    <t>중구</t>
-  </si>
-  <si>
-    <t>용산구</t>
-  </si>
-  <si>
-    <t>성동구</t>
-  </si>
-  <si>
-    <t>광진구</t>
-  </si>
-  <si>
-    <t>동대문구</t>
-  </si>
-  <si>
-    <t>중랑구</t>
-  </si>
-  <si>
-    <t>성북구</t>
-  </si>
-  <si>
-    <t>강북구</t>
-  </si>
-  <si>
-    <t>도봉구</t>
-  </si>
-  <si>
-    <t>노원구</t>
-  </si>
-  <si>
-    <t>은평구</t>
-  </si>
-  <si>
-    <t>서대문구</t>
-  </si>
-  <si>
-    <t>마포구</t>
-  </si>
-  <si>
-    <t>양천구</t>
-  </si>
-  <si>
-    <t>강서구</t>
-  </si>
-  <si>
-    <t>구로구</t>
-  </si>
-  <si>
-    <t>금천구</t>
-  </si>
-  <si>
-    <t>영등포구</t>
-  </si>
-  <si>
-    <t>동작구</t>
-  </si>
-  <si>
-    <t>관악구</t>
-  </si>
-  <si>
-    <t>서초구</t>
-  </si>
-  <si>
-    <t>강남구</t>
-  </si>
-  <si>
-    <t>송파구</t>
-  </si>
-  <si>
-    <t>강동구</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -171,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -495,1123 +420,1205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>구</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>세대소계</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>성별소계</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>한국인소계</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>등록외국인소계</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>남자</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>여자</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>세대당인구</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>65세이상</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>소계</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>4469417</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>9638799</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>4649446</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>4989353</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>9386034</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>4540031</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>4846003</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>252765</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>109415</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>143350</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>2.1</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>1743696</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>종로구</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>72067</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>150453</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>71890</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>78563</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>139417</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>67306</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>72111</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>11036</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>4584</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>6452</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1.93</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>28764</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>중구</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>64714</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>131793</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>63495</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>68298</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>121312</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>58659</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>62653</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>10481</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>4836</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>5645</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1.87</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>25920</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>용산구</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>107825</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>227106</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>109826</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>117280</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>213151</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>102312</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>110839</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>13955</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>7514</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>6441</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>1.98</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>39747</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>성동구</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>133089</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>284766</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>137620</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>147146</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>277361</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>134519</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>142842</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>7405</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>3101</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>4304</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>2.08</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>49462</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>광진구</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>170077</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>351180</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>167562</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>183618</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>335554</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>161277</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>174277</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>15626</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>6285</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>9341</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>1.97</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>56819</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>동대문구</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>172801</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>359873</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>174120</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>185753</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>341149</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>167346</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>173803</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>18724</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>6774</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>11950</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>1.97</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>67030</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>중랑구</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>188097</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>387470</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>189462</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>198008</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>382155</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>187372</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>194783</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>5315</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>2090</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>3225</v>
       </c>
-      <c r="L9">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="M9">
+      <c r="L9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M9" t="n">
         <v>78955</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>성북구</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>196800</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>438168</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>208682</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>229486</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>425602</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>204171</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>221431</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>12566</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>4511</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>8055</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>2.16</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>80414</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>강북구</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>143560</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>292977</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>141185</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>151792</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>288113</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>139514</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>148599</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>4864</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>1671</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>3193</v>
       </c>
-      <c r="L11">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="M11">
+      <c r="L11" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M11" t="n">
         <v>68617</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>도봉구</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>138261</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>309494</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>149675</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>159819</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>306948</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>148796</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>158152</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>2546</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>879</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>1667</v>
       </c>
-      <c r="L12">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="M12">
+      <c r="L12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M12" t="n">
         <v>70436</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>노원구</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>217904</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>502925</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>241099</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>261826</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>498213</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>239117</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>259096</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>4712</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>1982</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>2730</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>2.29</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>96422</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>은평구</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>215721</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>470869</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>223330</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>247539</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>466770</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>221725</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>245045</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>4099</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>1605</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>2494</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>2.16</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>93817</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>서대문구</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>146845</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>320629</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>149879</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>170750</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>306231</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>145404</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>160827</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>14398</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>4475</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>9923</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>2.09</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>58113</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>마포구</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>181090</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>375162</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>174073</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>201089</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>363697</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>169990</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>193707</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>11465</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>4083</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>7382</v>
       </c>
-      <c r="L16">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="M16">
+      <c r="L16" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M16" t="n">
         <v>57895</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>양천구</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>180695</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>439252</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>214161</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>225091</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>436028</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>212835</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>223193</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>3224</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>1326</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>1898</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>2.41</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>76317</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>강서구</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>274084</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>568826</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>272338</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>296488</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>563058</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>269822</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>293236</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>5768</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>2516</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>3252</v>
       </c>
-      <c r="L18">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="M18">
+      <c r="L18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M18" t="n">
         <v>102096</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>구로구</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>184096</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>415651</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>204715</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>210936</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>392405</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>192341</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>200064</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>23246</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>12374</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>10872</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>2.13</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>79984</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>금천구</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>120381</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>241105</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>121592</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>119513</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>227481</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>114414</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>113067</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>13624</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>7178</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>6446</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>1.89</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>45342</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>영등포구</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>190737</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>397800</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>195493</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>202307</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>374794</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>183726</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>191068</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>23006</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>11767</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>11239</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>1.96</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>67509</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>동작구</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>186675</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>389714</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>187623</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>202091</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>378769</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>183153</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>195616</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>10945</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>4470</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>6475</v>
       </c>
-      <c r="L22">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="M22">
+      <c r="L22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M22" t="n">
         <v>70474</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>관악구</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>284578</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>497883</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>249026</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>248857</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>481956</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>242651</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>239305</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>15927</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>6375</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>9552</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>1.69</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>85418</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>서초구</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>169884</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>412078</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>196391</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>215687</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>407664</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>194291</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>213373</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>4414</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>2100</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>2314</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>2.4</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>65661</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>강남구</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>239775</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>550282</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>262991</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>287291</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>544873</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>260520</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>284353</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>5409</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>2471</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>2938</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>2.27</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>86606</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>송파구</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>285927</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>660025</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>316981</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>343044</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>654166</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>314347</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>339819</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>5859</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>2634</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>3225</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>2.29</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>108894</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>강동구</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>203734</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>463318</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>226237</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>237081</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>459167</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>224423</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>234744</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>4151</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>1814</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>2337</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>2.25</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>82984</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>